--- a/generated_tables/io_d_sub_sd_hd_stamped_formed_rear_release_patterns.xlsx
+++ b/generated_tables/io_d_sub_sd_hd_stamped_formed_rear_release_patterns.xlsx
@@ -19,73 +19,73 @@
     <t>PART NUMBER</t>
   </si>
   <si>
-    <t>NUMBER_OF_CONTACTS</t>
+    <t>NUMBER OF CONTACTS</t>
   </si>
   <si>
-    <t>STANDARD_RIVET_Ø_3.0</t>
+    <t>STANDARD RIVET Ø 3.05MM</t>
   </si>
   <si>
-    <t>FIXED_FRONT_FEMALE_S</t>
+    <t>FIXED FRONT FEMALE SCREWLOCK</t>
   </si>
   <si>
-    <t>THREADED_REAR_INSERT</t>
+    <t>THREADED REAR INSERT</t>
   </si>
   <si>
-    <t>FIXED_PREFIX</t>
+    <t>FIXED PREFIX</t>
   </si>
   <si>
-    <t>SHELL_SIZE</t>
+    <t>SHELL SIZE</t>
   </si>
   <si>
-    <t>REAR_MOUNTING_TYPE</t>
+    <t>REAR MOUNTING TYPE</t>
   </si>
   <si>
-    <t>FRONT_MOUNTING_TYPE</t>
+    <t>FRONT MOUNTING TYPE</t>
   </si>
   <si>
-    <t>CONTACT_TYPE</t>
+    <t>CONTACT TYPE</t>
   </si>
   <si>
     <t>CONFIGURATION</t>
   </si>
   <si>
-    <t>FIXED_NUMBER</t>
+    <t>FIXED NUMBER</t>
   </si>
   <si>
-    <t>WIRE_SIZE</t>
+    <t>WIRE SIZE</t>
   </si>
   <si>
-    <t>FULL_GOLD_PLATING</t>
+    <t>FULL GOLD PLATING</t>
   </si>
   <si>
-    <t>SELECTIVE_GOLD_PLATI</t>
+    <t>SELECTIVE GOLD PLATING</t>
   </si>
   <si>
     <t>PACKAGING</t>
   </si>
   <si>
-    <t>SHELL_TYPE</t>
+    <t>SHELL TYPE</t>
   </si>
   <si>
-    <t>FIXED_CODE</t>
+    <t>FIXED CODE</t>
   </si>
   <si>
-    <t>SERIES_IDENTIFIER</t>
+    <t>SERIES IDENTIFIER</t>
   </si>
   <si>
-    <t>TOOL_TYPE_AND_SPECIF</t>
+    <t>TOOL TYPE AND SPECIFICATION</t>
   </si>
   <si>
-    <t>SUFFIX_FOR_SPECIFIC_</t>
+    <t>SUFFIX FOR SPECIFIC TOOL TYPE</t>
   </si>
   <si>
-    <t>SERIES_AND_BASE_IDEN</t>
+    <t>SERIES AND BASE IDENTIFIER</t>
   </si>
   <si>
-    <t>MACHINE_TYPE_AND_SPE</t>
+    <t>MACHINE TYPE AND SPECIFICATION</t>
   </si>
   <si>
-    <t>SUFFIX_FOR_MACHINE_T</t>
+    <t>SUFFIX FOR MACHINE TYPE</t>
   </si>
   <si>
     <t>HR-15-15</t>
@@ -172,34 +172,34 @@
     <t>973 MC</t>
   </si>
   <si>
-    <t>15 (15 contacts) [A: 30.84 (1.21), B: 24.99 (.98), C: 16.92 (.67), D: 16.24 (.64), E: 19.28 (.76)]</t>
+    <t>15 (15 contacts)</t>
   </si>
   <si>
-    <t>26 (26 contacts) [A: 39.24 (1.54), B: 33.32 (1.31), C: 24.7 (.972), D: 24.56 (.97), E: 27.51 (1.08)]</t>
+    <t>26 (26 contacts)</t>
   </si>
   <si>
-    <t>44 (44 contacts) [A: 53.04 (2.09), B: 47.04 (1.85), C: 38.96 (1.53), D: 38.38 (1.51), E: 41.30 (1.63)]</t>
+    <t>44 (44 contacts)</t>
   </si>
   <si>
-    <t>62 (62 contacts) [A: 69.32 (2.73), B: 63.50 (2.50), C: 55.42 (2.18), D: 54.76 (2.16), E: 57.71 (2.27)]</t>
+    <t>62 (62 contacts)</t>
   </si>
   <si>
-    <t>78 (78 contacts) [A: 67 (2.64), B: 61.11 (2.41), C: 52.86 (2.08), D: 52.34 (2.06), E: 55.3 (2.18)]</t>
+    <t>78 (78 contacts)</t>
   </si>
   <si>
     <t>No digit</t>
   </si>
   <si>
-    <t>VF (Fixed front female screwlock) [M3 or #4-40]</t>
+    <t>VF (Fixed front female screwlock)</t>
   </si>
   <si>
-    <t>VFM (Fixed front female screwlock) [M3 or #4-40]</t>
+    <t>VFM (Fixed front female screwlock)</t>
   </si>
   <si>
-    <t>H (Threaded rear insert) [M3 or #4-40]</t>
+    <t>H (Threaded rear insert)</t>
   </si>
   <si>
-    <t>G (Threaded rear insert) [M3 or #4-40]</t>
+    <t>G (Threaded rear insert)</t>
   </si>
   <si>
     <t>L</t>
